--- a/Graphs/feed_pressure_sweep_results.xlsx
+++ b/Graphs/feed_pressure_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="160" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="232" uniqueCount="132">
   <si>
     <t>Lh2 Feed pressure (bar)_ 1</t>
   </si>
@@ -193,6 +193,222 @@
   </si>
   <si>
     <t>LH2 consumed(kg)_20</t>
+  </si>
+  <si>
+    <t>LH2 Feed pressure (bar)_1</t>
+  </si>
+  <si>
+    <t>LH2 Feed pressure (bar)_2</t>
+  </si>
+  <si>
+    <t>LH2 Feed pressure (bar)_3</t>
+  </si>
+  <si>
+    <t>LH2 Feed pressure (bar)_4</t>
+  </si>
+  <si>
+    <t>LH2 Feed pressure (bar)_5</t>
+  </si>
+  <si>
+    <t>LH2 Feed pressure (bar)_6</t>
+  </si>
+  <si>
+    <t>LH2 Feed pressure (bar)_7</t>
+  </si>
+  <si>
+    <t>LH2 Feed pressure (bar)_8</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_8</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_8</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_1</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_2</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_3</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_4</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_5</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_6</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_7</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_8</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_1</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_2</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_3</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_4</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_5</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_6</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_7</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_8</t>
   </si>
 </sst>
 </file>
@@ -238,254 +454,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:BT2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="true"/>
-    <col min="2" max="2" width="24.28515625" customWidth="true"/>
-    <col min="3" max="3" width="24.28515625" customWidth="true"/>
-    <col min="4" max="4" width="24.28515625" customWidth="true"/>
-    <col min="5" max="5" width="24.28515625" customWidth="true"/>
-    <col min="6" max="6" width="24.28515625" customWidth="true"/>
-    <col min="7" max="7" width="24.28515625" customWidth="true"/>
-    <col min="8" max="8" width="24.28515625" customWidth="true"/>
-    <col min="9" max="9" width="24.28515625" customWidth="true"/>
-    <col min="10" max="10" width="24.85546875" customWidth="true"/>
-    <col min="11" max="11" width="24.85546875" customWidth="true"/>
-    <col min="12" max="12" width="24.85546875" customWidth="true"/>
-    <col min="13" max="13" width="24.85546875" customWidth="true"/>
-    <col min="14" max="14" width="24.85546875" customWidth="true"/>
-    <col min="15" max="15" width="24.85546875" customWidth="true"/>
-    <col min="16" max="16" width="24.85546875" customWidth="true"/>
-    <col min="17" max="17" width="24.85546875" customWidth="true"/>
-    <col min="18" max="18" width="24.85546875" customWidth="true"/>
-    <col min="19" max="19" width="24.85546875" customWidth="true"/>
-    <col min="20" max="20" width="24.85546875" customWidth="true"/>
-    <col min="21" max="21" width="34.7109375" customWidth="true"/>
-    <col min="22" max="22" width="34.7109375" customWidth="true"/>
-    <col min="23" max="23" width="34.7109375" customWidth="true"/>
-    <col min="24" max="24" width="34.7109375" customWidth="true"/>
-    <col min="25" max="25" width="34.7109375" customWidth="true"/>
-    <col min="26" max="26" width="34.7109375" customWidth="true"/>
-    <col min="27" max="27" width="34.7109375" customWidth="true"/>
-    <col min="28" max="28" width="34.7109375" customWidth="true"/>
-    <col min="29" max="29" width="34.7109375" customWidth="true"/>
-    <col min="30" max="30" width="35.28515625" customWidth="true"/>
-    <col min="31" max="31" width="35.28515625" customWidth="true"/>
-    <col min="32" max="32" width="35.28515625" customWidth="true"/>
-    <col min="33" max="33" width="35.28515625" customWidth="true"/>
-    <col min="34" max="34" width="35.28515625" customWidth="true"/>
-    <col min="35" max="35" width="35.28515625" customWidth="true"/>
-    <col min="36" max="36" width="35.28515625" customWidth="true"/>
-    <col min="37" max="37" width="35.28515625" customWidth="true"/>
-    <col min="38" max="38" width="35.28515625" customWidth="true"/>
-    <col min="39" max="39" width="35.28515625" customWidth="true"/>
-    <col min="40" max="40" width="35.28515625" customWidth="true"/>
-    <col min="41" max="41" width="19.7109375" customWidth="true"/>
-    <col min="42" max="42" width="19.7109375" customWidth="true"/>
-    <col min="43" max="43" width="19.7109375" customWidth="true"/>
-    <col min="44" max="44" width="19.7109375" customWidth="true"/>
-    <col min="45" max="45" width="19.7109375" customWidth="true"/>
-    <col min="46" max="46" width="19.7109375" customWidth="true"/>
-    <col min="47" max="47" width="19.7109375" customWidth="true"/>
-    <col min="48" max="48" width="19.7109375" customWidth="true"/>
-    <col min="49" max="49" width="19.7109375" customWidth="true"/>
-    <col min="50" max="50" width="20.28515625" customWidth="true"/>
-    <col min="51" max="51" width="20.28515625" customWidth="true"/>
-    <col min="52" max="52" width="20.28515625" customWidth="true"/>
-    <col min="53" max="53" width="20.28515625" customWidth="true"/>
-    <col min="54" max="54" width="20.28515625" customWidth="true"/>
-    <col min="55" max="55" width="20.28515625" customWidth="true"/>
-    <col min="56" max="56" width="20.28515625" customWidth="true"/>
-    <col min="57" max="57" width="20.28515625" customWidth="true"/>
-    <col min="58" max="58" width="20.28515625" customWidth="true"/>
-    <col min="59" max="59" width="20.28515625" customWidth="true"/>
-    <col min="60" max="60" width="20.28515625" customWidth="true"/>
+    <col min="1" max="1" width="24" customWidth="true"/>
+    <col min="2" max="2" width="24" customWidth="true"/>
+    <col min="3" max="3" width="24" customWidth="true"/>
+    <col min="4" max="4" width="24" customWidth="true"/>
+    <col min="5" max="5" width="24" customWidth="true"/>
+    <col min="6" max="6" width="24" customWidth="true"/>
+    <col min="7" max="7" width="24" customWidth="true"/>
+    <col min="8" max="8" width="24" customWidth="true"/>
+    <col min="9" max="9" width="35.28515625" customWidth="true"/>
+    <col min="10" max="10" width="35.28515625" customWidth="true"/>
+    <col min="11" max="11" width="35.28515625" customWidth="true"/>
+    <col min="12" max="12" width="35.28515625" customWidth="true"/>
+    <col min="13" max="13" width="35.28515625" customWidth="true"/>
+    <col min="14" max="14" width="35.28515625" customWidth="true"/>
+    <col min="15" max="15" width="35.28515625" customWidth="true"/>
+    <col min="16" max="16" width="35.28515625" customWidth="true"/>
+    <col min="17" max="17" width="33.85546875" customWidth="true"/>
+    <col min="18" max="18" width="33.85546875" customWidth="true"/>
+    <col min="19" max="19" width="33.85546875" customWidth="true"/>
+    <col min="20" max="20" width="33.85546875" customWidth="true"/>
+    <col min="21" max="21" width="33.85546875" customWidth="true"/>
+    <col min="22" max="22" width="33.85546875" customWidth="true"/>
+    <col min="23" max="23" width="33.85546875" customWidth="true"/>
+    <col min="24" max="24" width="33.85546875" customWidth="true"/>
+    <col min="25" max="25" width="40.7109375" customWidth="true"/>
+    <col min="26" max="26" width="40.7109375" customWidth="true"/>
+    <col min="27" max="27" width="40.7109375" customWidth="true"/>
+    <col min="28" max="28" width="40.7109375" customWidth="true"/>
+    <col min="29" max="29" width="40.7109375" customWidth="true"/>
+    <col min="30" max="30" width="40.7109375" customWidth="true"/>
+    <col min="31" max="31" width="40.7109375" customWidth="true"/>
+    <col min="32" max="32" width="40.7109375" customWidth="true"/>
+    <col min="33" max="33" width="34" customWidth="true"/>
+    <col min="34" max="34" width="34" customWidth="true"/>
+    <col min="35" max="35" width="34" customWidth="true"/>
+    <col min="36" max="36" width="34" customWidth="true"/>
+    <col min="37" max="37" width="34" customWidth="true"/>
+    <col min="38" max="38" width="34" customWidth="true"/>
+    <col min="39" max="39" width="34" customWidth="true"/>
+    <col min="40" max="40" width="34" customWidth="true"/>
+    <col min="41" max="41" width="32.5703125" customWidth="true"/>
+    <col min="42" max="42" width="32.5703125" customWidth="true"/>
+    <col min="43" max="43" width="32.5703125" customWidth="true"/>
+    <col min="44" max="44" width="32.5703125" customWidth="true"/>
+    <col min="45" max="45" width="32.5703125" customWidth="true"/>
+    <col min="46" max="46" width="32.5703125" customWidth="true"/>
+    <col min="47" max="47" width="32.5703125" customWidth="true"/>
+    <col min="48" max="48" width="32.5703125" customWidth="true"/>
+    <col min="49" max="49" width="39.42578125" customWidth="true"/>
+    <col min="50" max="50" width="39.42578125" customWidth="true"/>
+    <col min="51" max="51" width="39.42578125" customWidth="true"/>
+    <col min="52" max="52" width="39.42578125" customWidth="true"/>
+    <col min="53" max="53" width="39.42578125" customWidth="true"/>
+    <col min="54" max="54" width="39.42578125" customWidth="true"/>
+    <col min="55" max="55" width="39.42578125" customWidth="true"/>
+    <col min="56" max="56" width="39.42578125" customWidth="true"/>
+    <col min="57" max="57" width="34.28515625" customWidth="true"/>
+    <col min="58" max="58" width="34.28515625" customWidth="true"/>
+    <col min="59" max="59" width="34.28515625" customWidth="true"/>
+    <col min="60" max="60" width="34.28515625" customWidth="true"/>
+    <col min="61" max="61" width="34.28515625" customWidth="true"/>
+    <col min="62" max="62" width="34.28515625" customWidth="true"/>
+    <col min="63" max="63" width="34.28515625" customWidth="true"/>
+    <col min="64" max="64" width="34.28515625" customWidth="true"/>
+    <col min="65" max="65" width="33" customWidth="true"/>
+    <col min="66" max="66" width="33" customWidth="true"/>
+    <col min="67" max="67" width="33" customWidth="true"/>
+    <col min="68" max="68" width="33" customWidth="true"/>
+    <col min="69" max="69" width="33" customWidth="true"/>
+    <col min="70" max="70" width="33" customWidth="true"/>
+    <col min="71" max="71" width="33" customWidth="true"/>
+    <col min="72" max="72" width="33" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>59</v>
+        <v>119</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="BT1" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2">
@@ -493,181 +757,217 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2105263157894737</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="C2" s="0">
-        <v>0.22105263157894739</v>
+        <v>0.24444444444444446</v>
       </c>
       <c r="D2" s="0">
-        <v>0.23157894736842108</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="E2" s="0">
-        <v>0.24210526315789474</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="F2" s="0">
-        <v>0.25263157894736843</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="G2" s="0">
-        <v>0.26315789473684215</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="H2" s="0">
-        <v>0.27368421052631581</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="I2" s="0">
-        <v>0.28421052631578947</v>
+        <v>34.093056537861635</v>
       </c>
       <c r="J2" s="0">
-        <v>0.29473684210526319</v>
+        <v>33.725191934415477</v>
       </c>
       <c r="K2" s="0">
-        <v>0.30526315789473685</v>
+        <v>33.529048037856541</v>
       </c>
       <c r="L2" s="0">
-        <v>0.31578947368421056</v>
+        <v>33.439015355690024</v>
       </c>
       <c r="M2" s="0">
-        <v>0.32631578947368423</v>
+        <v>33.187585863438336</v>
       </c>
       <c r="N2" s="0">
-        <v>0.33684210526315794</v>
+        <v>33.034920070257066</v>
       </c>
       <c r="O2" s="0">
-        <v>0.3473684210526316</v>
+        <v>33.065072232289218</v>
       </c>
       <c r="P2" s="0">
-        <v>0.35789473684210527</v>
+        <v>32.997204347418027</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.36842105263157898</v>
+        <v>16.048101974424654</v>
       </c>
       <c r="R2" s="0">
-        <v>0.3789473684210527</v>
+        <v>16.054945643368402</v>
       </c>
       <c r="S2" s="0">
-        <v>0.38947368421052631</v>
+        <v>16.058412407352119</v>
       </c>
       <c r="T2" s="0">
-        <v>0.40000000000000002</v>
+        <v>16.34100724814909</v>
       </c>
       <c r="U2" s="0">
+        <v>16.491952439290944</v>
+      </c>
+      <c r="V2" s="0">
+        <v>16.171644842712318</v>
+      </c>
+      <c r="W2" s="0">
+        <v>15.858017803348112</v>
+      </c>
+      <c r="X2" s="0">
+        <v>15.88205450284668</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>0.4707146734292546</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>0.47605201697858524</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>0.47894030242734886</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>0.4886808739530808</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>0.49693136786606651</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>0.48953182899547654</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>0.47960027705193381</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>0.48131515432729144</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>31.168056872160015</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>30.741752881427516</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>30.486650384940184</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>30.120018586333707</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>29.92639824370513</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>29.766004015183412</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>29.550647275961929</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>29.52065779884942</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>15.794777023187651</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>15.149907245506135</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>15.068310097475692</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>14.860201167863417</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>14.783672986835208</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>14.696214448442575</v>
+      </c>
+      <c r="AU2" s="0">
+        <v>14.595744335604524</v>
+      </c>
+      <c r="AV2" s="0">
+        <v>14.616757967942247</v>
+      </c>
+      <c r="AW2" s="0">
+        <v>0.50676168514360898</v>
+      </c>
+      <c r="AX2" s="0">
+        <v>0.49281208211971805</v>
+      </c>
+      <c r="AY2" s="0">
+        <v>0.49425928749847658</v>
+      </c>
+      <c r="AZ2" s="0">
+        <v>0.49336626819366924</v>
+      </c>
+      <c r="BA2" s="0">
+        <v>0.49400107779240959</v>
+      </c>
+      <c r="BB2" s="0">
+        <v>0.493724802326377</v>
+      </c>
+      <c r="BC2" s="0">
+        <v>0.49392299936108269</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>0.49513659443293101</v>
+      </c>
+      <c r="BE2" s="0">
         <v>305</v>
       </c>
-      <c r="V2" s="0">
-        <v>303.5</v>
-      </c>
-      <c r="W2" s="0">
+      <c r="BF2" s="0">
         <v>301</v>
       </c>
-      <c r="X2" s="0">
+      <c r="BG2" s="0">
         <v>300</v>
       </c>
-      <c r="Y2" s="0">
-        <v>300</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>300</v>
-      </c>
-      <c r="AA2" s="0">
+      <c r="BH2" s="0">
         <v>300.5</v>
       </c>
-      <c r="AB2" s="0">
-        <v>301</v>
-      </c>
-      <c r="AC2" s="0">
+      <c r="BI2" s="0">
         <v>301.5</v>
       </c>
-      <c r="AD2" s="0">
-        <v>302</v>
-      </c>
-      <c r="AE2" s="0">
+      <c r="BJ2" s="0">
         <v>303</v>
       </c>
-      <c r="AF2" s="0">
-        <v>303.5</v>
-      </c>
-      <c r="AG2" s="0">
+      <c r="BK2" s="0">
         <v>304.5</v>
       </c>
-      <c r="AH2" s="0">
-        <v>304.5</v>
-      </c>
-      <c r="AI2" s="0">
-        <v>305</v>
-      </c>
-      <c r="AJ2" s="0">
+      <c r="BL2" s="0">
         <v>305.5</v>
       </c>
-      <c r="AK2" s="0">
-        <v>306.5</v>
-      </c>
-      <c r="AL2" s="0">
-        <v>307.5</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>309.5</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>311</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>34.093056537861635</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>33.968043168747819</v>
-      </c>
-      <c r="AQ2" s="0">
-        <v>33.667064054796512</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>33.447376177964529</v>
-      </c>
-      <c r="AS2" s="0">
-        <v>33.5302712994704</v>
-      </c>
-      <c r="AT2" s="0">
-        <v>33.45525557190858</v>
-      </c>
-      <c r="AU2" s="0">
-        <v>33.535435623046062</v>
-      </c>
-      <c r="AV2" s="0">
-        <v>33.471312788380573</v>
-      </c>
-      <c r="AW2" s="0">
-        <v>33.422156126772236</v>
-      </c>
-      <c r="AX2" s="0">
-        <v>33.130177282264505</v>
-      </c>
-      <c r="AY2" s="0">
-        <v>33.0857187836056</v>
-      </c>
-      <c r="AZ2" s="0">
-        <v>33.049469687065077</v>
-      </c>
-      <c r="BA2" s="0">
-        <v>33.102451552845288</v>
-      </c>
-      <c r="BB2" s="0">
-        <v>33.023130394345671</v>
-      </c>
-      <c r="BC2" s="0">
-        <v>32.995423038930383</v>
-      </c>
-      <c r="BD2" s="0">
-        <v>32.898178667220201</v>
-      </c>
-      <c r="BE2" s="0">
-        <v>32.913459335117693</v>
-      </c>
-      <c r="BF2" s="0">
-        <v>32.748134941325851</v>
-      </c>
-      <c r="BG2" s="0">
-        <v>32.853048780418774</v>
-      </c>
-      <c r="BH2" s="0">
-        <v>32.611463778384717</v>
+      <c r="BM2" s="0">
+        <v>272</v>
+      </c>
+      <c r="BN2" s="0">
+        <v>268.5</v>
+      </c>
+      <c r="BO2" s="0">
+        <v>267.5</v>
+      </c>
+      <c r="BP2" s="0">
+        <v>267.5</v>
+      </c>
+      <c r="BQ2" s="0">
+        <v>268</v>
+      </c>
+      <c r="BR2" s="0">
+        <v>270</v>
+      </c>
+      <c r="BS2" s="0">
+        <v>273.5</v>
+      </c>
+      <c r="BT2" s="0">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/feed_pressure_sweep_results.xlsx
+++ b/Graphs/feed_pressure_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="45" uniqueCount="10">
   <si>
     <t>LH2 Feed pressure (bar)</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Time taken for cold tank refuel (s)</t>
+  </si>
+  <si>
+    <t>LH2 Feed pressure (MPa)</t>
   </si>
 </sst>
 </file>
@@ -85,13 +88,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="true"/>
+    <col min="1" max="1" width="23" customWidth="true"/>
     <col min="2" max="2" width="33.28515625" customWidth="true"/>
     <col min="3" max="3" width="31.85546875" customWidth="true"/>
     <col min="4" max="4" width="38.7109375" customWidth="true"/>
@@ -104,7 +107,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -133,234 +136,292 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="B2" s="0">
-        <v>34.093056537861635</v>
+        <v>32.782103198994641</v>
       </c>
       <c r="C2" s="0">
-        <v>16.048101974424654</v>
+        <v>15.941858274064645</v>
       </c>
       <c r="D2" s="0">
-        <v>0.4707146734292546</v>
+        <v>0.48629760504669356</v>
       </c>
       <c r="E2" s="0">
-        <v>31.168056872160015</v>
+        <v>31.538759766927626</v>
       </c>
       <c r="F2" s="0">
-        <v>15.794777023187651</v>
+        <v>14.90547164181377</v>
       </c>
       <c r="G2" s="0">
-        <v>0.50676168514360898</v>
+        <v>0.47260804647886123</v>
       </c>
       <c r="H2" s="0">
-        <v>305</v>
+        <v>514.53396205500815</v>
       </c>
       <c r="I2" s="0">
-        <v>272</v>
+        <v>480.61214364286309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.22222222222222224</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B3" s="0">
-        <v>33.725191934415477</v>
+        <v>32.628643751137226</v>
       </c>
       <c r="C3" s="0">
-        <v>16.054945643368402</v>
+        <v>16.221410824251986</v>
       </c>
       <c r="D3" s="0">
-        <v>0.47605201697858524</v>
+        <v>0.49715246971264665</v>
       </c>
       <c r="E3" s="0">
-        <v>30.741752881427516</v>
+        <v>29.761717834743528</v>
       </c>
       <c r="F3" s="0">
-        <v>15.149907245506135</v>
+        <v>14.544388766955187</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49281208211971805</v>
+        <v>0.48869453193915491</v>
       </c>
       <c r="H3" s="0">
-        <v>301</v>
+        <v>383.52316034464098</v>
       </c>
       <c r="I3" s="0">
-        <v>268.5</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.24444444444444446</v>
+        <v>0.030000000000000006</v>
       </c>
       <c r="B4" s="0">
-        <v>33.529048037856541</v>
+        <v>32.693138942182138</v>
       </c>
       <c r="C4" s="0">
-        <v>16.058412407352119</v>
+        <v>15.864385491982832</v>
       </c>
       <c r="D4" s="0">
-        <v>0.47894030242734886</v>
+        <v>0.48525121800139837</v>
       </c>
       <c r="E4" s="0">
-        <v>30.486650384940184</v>
+        <v>29.40202614253473</v>
       </c>
       <c r="F4" s="0">
-        <v>15.068310097475692</v>
+        <v>14.506100850929787</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49425928749847658</v>
+        <v>0.4933707895029858</v>
       </c>
       <c r="H4" s="0">
-        <v>300</v>
+        <v>330.05010479048428</v>
       </c>
       <c r="I4" s="0">
-        <v>267.5</v>
+        <v>294.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.26666666666666672</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="B5" s="0">
-        <v>33.439015355690024</v>
+        <v>32.807420928529716</v>
       </c>
       <c r="C5" s="0">
-        <v>16.34100724814909</v>
+        <v>16.291181932318644</v>
       </c>
       <c r="D5" s="0">
-        <v>0.4886808739530808</v>
+        <v>0.49657002809847944</v>
       </c>
       <c r="E5" s="0">
-        <v>30.120018586333707</v>
+        <v>29.344262227256216</v>
       </c>
       <c r="F5" s="0">
-        <v>14.860201167863417</v>
+        <v>14.583801195120969</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49336626819366924</v>
+        <v>0.49698987427855335</v>
       </c>
       <c r="H5" s="0">
-        <v>300.5</v>
+        <v>299.06489935018368</v>
       </c>
       <c r="I5" s="0">
-        <v>267.5</v>
+        <v>265.58113131378332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.28888888888888892</v>
+        <v>0.05000000000000001</v>
       </c>
       <c r="B6" s="0">
-        <v>33.187585863438336</v>
+        <v>33.028717066226655</v>
       </c>
       <c r="C6" s="0">
-        <v>16.491952439290944</v>
+        <v>16.229408088172487</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49693136786606651</v>
+        <v>0.49137264567771499</v>
       </c>
       <c r="E6" s="0">
-        <v>29.92639824370513</v>
+        <v>29.428424329711483</v>
       </c>
       <c r="F6" s="0">
-        <v>14.783672986835208</v>
+        <v>14.352305193760612</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49400107779240959</v>
+        <v>0.48770212883162278</v>
       </c>
       <c r="H6" s="0">
-        <v>301.5</v>
+        <v>279.97850425503628</v>
       </c>
       <c r="I6" s="0">
-        <v>268</v>
+        <v>247.97743637568243</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.31111111111111112</v>
+        <v>0.060000000000000012</v>
       </c>
       <c r="B7" s="0">
-        <v>33.034920070257066</v>
+        <v>33.075027751179192</v>
       </c>
       <c r="C7" s="0">
-        <v>16.171644842712318</v>
+        <v>15.757709334551468</v>
       </c>
       <c r="D7" s="0">
-        <v>0.48953182899547654</v>
+        <v>0.47642316290995923</v>
       </c>
       <c r="E7" s="0">
-        <v>29.766004015183412</v>
+        <v>29.547058183870611</v>
       </c>
       <c r="F7" s="0">
-        <v>14.696214448442575</v>
+        <v>14.229710871341881</v>
       </c>
       <c r="G7" s="0">
-        <v>0.493724802326377</v>
+        <v>0.48159484381797818</v>
       </c>
       <c r="H7" s="0">
-        <v>303</v>
+        <v>264.93941487885422</v>
       </c>
       <c r="I7" s="0">
-        <v>270</v>
+        <v>234.48172984008158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.33333333333333337</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="B8" s="0">
-        <v>33.065072232289218</v>
+        <v>33.103247222993616</v>
       </c>
       <c r="C8" s="0">
-        <v>15.858017803348112</v>
+        <v>15.668040964114224</v>
       </c>
       <c r="D8" s="0">
-        <v>0.47960027705193381</v>
+        <v>0.47330827874889431</v>
       </c>
       <c r="E8" s="0">
-        <v>29.550647275961929</v>
+        <v>29.622218816427491</v>
       </c>
       <c r="F8" s="0">
-        <v>14.595744335604524</v>
+        <v>14.20177521486325</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49392299936108269</v>
+        <v>0.47942982606648699</v>
       </c>
       <c r="H8" s="0">
-        <v>304.5</v>
+        <v>253.9089800008224</v>
       </c>
       <c r="I8" s="0">
-        <v>273.5</v>
+        <v>224.05999176637027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.35555555555555557</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="B9" s="0">
-        <v>32.997204347418027</v>
+        <v>33.20663763430386</v>
       </c>
       <c r="C9" s="0">
-        <v>15.88205450284668</v>
+        <v>15.807284476508356</v>
       </c>
       <c r="D9" s="0">
-        <v>0.48131515432729144</v>
+        <v>0.47602785474970111</v>
       </c>
       <c r="E9" s="0">
-        <v>29.52065779884942</v>
+        <v>29.73629283040912</v>
       </c>
       <c r="F9" s="0">
-        <v>14.616757967942247</v>
+        <v>14.3559598089563</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49513659443293101</v>
+        <v>0.48277570747741344</v>
       </c>
       <c r="H9" s="0">
-        <v>305.5</v>
+        <v>247.53200442231542</v>
       </c>
       <c r="I9" s="0">
-        <v>279</v>
+        <v>215.89869199196136</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.090000000000000011</v>
+      </c>
+      <c r="B10" s="0">
+        <v>33.332796427749976</v>
+      </c>
+      <c r="C10" s="0">
+        <v>15.690204794310942</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.47071372569415293</v>
+      </c>
+      <c r="E10" s="0">
+        <v>29.806605027105881</v>
+      </c>
+      <c r="F10" s="0">
+        <v>14.65412151055671</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.49164007431340712</v>
+      </c>
+      <c r="H10" s="0">
+        <v>239</v>
+      </c>
+      <c r="I10" s="0">
+        <v>209.62651492573076</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="B11" s="0">
+        <v>33.518925693789171</v>
+      </c>
+      <c r="C11" s="0">
+        <v>15.749316506318914</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.4698634034454498</v>
+      </c>
+      <c r="E11" s="0">
+        <v>29.905018401784837</v>
+      </c>
+      <c r="F11" s="0">
+        <v>15.029180968978293</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.5025638428659619</v>
+      </c>
+      <c r="H11" s="0">
+        <v>233.55118819170545</v>
+      </c>
+      <c r="I11" s="0">
+        <v>203.99441969176524</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/feed_pressure_sweep_results.xlsx
+++ b/Graphs/feed_pressure_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="54" uniqueCount="10">
   <si>
     <t>LH2 Feed pressure (bar)</t>
   </si>
@@ -94,15 +94,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="20.9296875" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -139,144 +139,144 @@
         <v>0.01</v>
       </c>
       <c r="B2" s="0">
-        <v>32.782103198994641</v>
+        <v>32.44784093237454</v>
       </c>
       <c r="C2" s="0">
-        <v>15.941858274064645</v>
+        <v>15.985212518246993</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48629760504669356</v>
+        <v>0.49264333339041649</v>
       </c>
       <c r="E2" s="0">
-        <v>31.538759766927626</v>
+        <v>31.392627209367483</v>
       </c>
       <c r="F2" s="0">
-        <v>14.90547164181377</v>
+        <v>14.902601548363657</v>
       </c>
       <c r="G2" s="0">
-        <v>0.47260804647886123</v>
+        <v>0.47471660938007626</v>
       </c>
       <c r="H2" s="0">
-        <v>514.53396205500815</v>
+        <v>510.51054188989281</v>
       </c>
       <c r="I2" s="0">
-        <v>480.61214364286309</v>
+        <v>479.5377324322792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.020000000000000004</v>
+        <v>0.030000000000000006</v>
       </c>
       <c r="B3" s="0">
-        <v>32.628643751137226</v>
+        <v>32.704665986204098</v>
       </c>
       <c r="C3" s="0">
-        <v>16.221410824251986</v>
+        <v>15.87709591193685</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49715246971264665</v>
+        <v>0.4854688293907154</v>
       </c>
       <c r="E3" s="0">
-        <v>29.761717834743528</v>
+        <v>29.339196015291321</v>
       </c>
       <c r="F3" s="0">
-        <v>14.544388766955187</v>
+        <v>14.528100482717866</v>
       </c>
       <c r="G3" s="0">
-        <v>0.48869453193915491</v>
+        <v>0.49517718464902555</v>
       </c>
       <c r="H3" s="0">
-        <v>383.52316034464098</v>
+        <v>329.96454751654818</v>
       </c>
       <c r="I3" s="0">
-        <v>346.5</v>
+        <v>293.03178225934494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.030000000000000006</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="B4" s="0">
-        <v>32.693138942182138</v>
+        <v>32.761535349240994</v>
       </c>
       <c r="C4" s="0">
-        <v>15.864385491982832</v>
+        <v>16.285958916767651</v>
       </c>
       <c r="D4" s="0">
-        <v>0.48525121800139837</v>
+        <v>0.49710609539992018</v>
       </c>
       <c r="E4" s="0">
-        <v>29.40202614253473</v>
+        <v>29.314555093896566</v>
       </c>
       <c r="F4" s="0">
-        <v>14.506100850929787</v>
+        <v>14.528575377732631</v>
       </c>
       <c r="G4" s="0">
-        <v>0.4933707895029858</v>
+        <v>0.49560961546905929</v>
       </c>
       <c r="H4" s="0">
-        <v>330.05010479048428</v>
+        <v>298.95595231901831</v>
       </c>
       <c r="I4" s="0">
-        <v>294.5</v>
+        <v>265.04471356156739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.060000000000000012</v>
       </c>
       <c r="B5" s="0">
-        <v>32.807420928529716</v>
+        <v>33.063735884017284</v>
       </c>
       <c r="C5" s="0">
-        <v>16.291181932318644</v>
+        <v>16.101424771401202</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49657002809847944</v>
+        <v>0.48698141153445662</v>
       </c>
       <c r="E5" s="0">
-        <v>29.344262227256216</v>
+        <v>29.482311173280657</v>
       </c>
       <c r="F5" s="0">
-        <v>14.583801195120969</v>
+        <v>14.089610441834427</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49698987427855335</v>
+        <v>0.47790047255873258</v>
       </c>
       <c r="H5" s="0">
-        <v>299.06489935018368</v>
+        <v>265</v>
       </c>
       <c r="I5" s="0">
-        <v>265.58113131378332</v>
+        <v>234.09999999999997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.05000000000000001</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="B6" s="0">
-        <v>33.028717066226655</v>
+        <v>33.140753141019992</v>
       </c>
       <c r="C6" s="0">
-        <v>16.229408088172487</v>
+        <v>16.146784668148971</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49137264567771499</v>
+        <v>0.48721839843051956</v>
       </c>
       <c r="E6" s="0">
-        <v>29.428424329711483</v>
+        <v>29.701968286178499</v>
       </c>
       <c r="F6" s="0">
-        <v>14.352305193760612</v>
+        <v>14.368565911707361</v>
       </c>
       <c r="G6" s="0">
-        <v>0.48770212883162278</v>
+        <v>0.48375803829787345</v>
       </c>
       <c r="H6" s="0">
-        <v>279.97850425503628</v>
+        <v>247.43656617743781</v>
       </c>
       <c r="I6" s="0">
-        <v>247.97743637568243</v>
+        <v>215.03314955093458</v>
       </c>
     </row>
     <row r="7">

--- a/Graphs/feed_pressure_sweep_results.xlsx
+++ b/Graphs/feed_pressure_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="54" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="63" uniqueCount="10">
   <si>
     <t>LH2 Feed pressure (bar)</t>
   </si>
@@ -139,57 +139,57 @@
         <v>0.01</v>
       </c>
       <c r="B2" s="0">
-        <v>32.44784093237454</v>
+        <v>33.21246458365983</v>
       </c>
       <c r="C2" s="0">
-        <v>15.985212518246993</v>
+        <v>16.202565990148685</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49264333339041649</v>
+        <v>0.48784593956692301</v>
       </c>
       <c r="E2" s="0">
-        <v>31.392627209367483</v>
+        <v>30.447543895509135</v>
       </c>
       <c r="F2" s="0">
-        <v>14.902601548363657</v>
+        <v>15.986319552246279</v>
       </c>
       <c r="G2" s="0">
-        <v>0.47471660938007626</v>
+        <v>0.52504463437539151</v>
       </c>
       <c r="H2" s="0">
-        <v>510.51054188989281</v>
+        <v>392</v>
       </c>
       <c r="I2" s="0">
-        <v>479.5377324322792</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.030000000000000006</v>
+        <v>0.020000000000000004</v>
       </c>
       <c r="B3" s="0">
-        <v>32.704665986204098</v>
+        <v>33.998490411371414</v>
       </c>
       <c r="C3" s="0">
-        <v>15.87709591193685</v>
+        <v>17.098783289264428</v>
       </c>
       <c r="D3" s="0">
-        <v>0.4854688293907154</v>
+        <v>0.50292772068331093</v>
       </c>
       <c r="E3" s="0">
-        <v>29.339196015291321</v>
+        <v>30.965320937654489</v>
       </c>
       <c r="F3" s="0">
-        <v>14.528100482717866</v>
+        <v>15.791445377890428</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49517718464902555</v>
+        <v>0.5099719589435191</v>
       </c>
       <c r="H3" s="0">
-        <v>329.96454751654818</v>
+        <v>361</v>
       </c>
       <c r="I3" s="0">
-        <v>293.03178225934494</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
@@ -197,86 +197,86 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="B4" s="0">
-        <v>32.761535349240994</v>
+        <v>34.953292098841374</v>
       </c>
       <c r="C4" s="0">
-        <v>16.285958916767651</v>
+        <v>17.767381951044431</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49710609539992018</v>
+        <v>0.50831784029960891</v>
       </c>
       <c r="E4" s="0">
-        <v>29.314555093896566</v>
+        <v>31.177113745966082</v>
       </c>
       <c r="F4" s="0">
-        <v>14.528575377732631</v>
+        <v>15.445880782691894</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49560961546905929</v>
+        <v>0.49542369151122567</v>
       </c>
       <c r="H4" s="0">
-        <v>298.95595231901831</v>
+        <v>329</v>
       </c>
       <c r="I4" s="0">
-        <v>265.04471356156739</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.060000000000000012</v>
+        <v>0.05000000000000001</v>
       </c>
       <c r="B5" s="0">
-        <v>33.063735884017284</v>
+        <v>35.394112510104648</v>
       </c>
       <c r="C5" s="0">
-        <v>16.101424771401202</v>
+        <v>17.756840852952326</v>
       </c>
       <c r="D5" s="0">
-        <v>0.48698141153445662</v>
+        <v>0.50168911137079464</v>
       </c>
       <c r="E5" s="0">
-        <v>29.482311173280657</v>
+        <v>31.326300792602915</v>
       </c>
       <c r="F5" s="0">
-        <v>14.089610441834427</v>
+        <v>15.428697994712859</v>
       </c>
       <c r="G5" s="0">
-        <v>0.47790047255873258</v>
+        <v>0.49251579676959628</v>
       </c>
       <c r="H5" s="0">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="I5" s="0">
-        <v>234.09999999999997</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.060000000000000012</v>
       </c>
       <c r="B6" s="0">
-        <v>33.140753141019992</v>
+        <v>35.310144536326654</v>
       </c>
       <c r="C6" s="0">
-        <v>16.146784668148971</v>
+        <v>17.965353722573337</v>
       </c>
       <c r="D6" s="0">
-        <v>0.48721839843051956</v>
+        <v>0.50878731759624474</v>
       </c>
       <c r="E6" s="0">
-        <v>29.701968286178499</v>
+        <v>32.791752215879534</v>
       </c>
       <c r="F6" s="0">
-        <v>14.368565911707361</v>
+        <v>16.591165532682105</v>
       </c>
       <c r="G6" s="0">
-        <v>0.48375803829787345</v>
+        <v>0.50595544341323029</v>
       </c>
       <c r="H6" s="0">
-        <v>247.43656617743781</v>
+        <v>309</v>
       </c>
       <c r="I6" s="0">
-        <v>215.03314955093458</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">

--- a/Graphs/feed_pressure_sweep_results.xlsx
+++ b/Graphs/feed_pressure_sweep_results.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="63" uniqueCount="10">
-  <si>
-    <t>LH2 Feed pressure (bar)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
+  <si>
+    <t>LH2 Feed pressure (MPa)</t>
   </si>
   <si>
     <t>LH2 consumed warm tank refuel (kg)</t>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Time taken for cold tank refuel (s)</t>
-  </si>
-  <si>
-    <t>LH2 Feed pressure (MPa)</t>
   </si>
 </sst>
 </file>
@@ -94,20 +91,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.9296875" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="23" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -139,28 +136,28 @@
         <v>0.01</v>
       </c>
       <c r="B2" s="0">
-        <v>33.21246458365983</v>
+        <v>32.592550571366232</v>
       </c>
       <c r="C2" s="0">
-        <v>16.202565990148685</v>
+        <v>15.990458615771146</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48784593956692301</v>
+        <v>0.49061697643937568</v>
       </c>
       <c r="E2" s="0">
-        <v>30.447543895509135</v>
+        <v>30.794038459236532</v>
       </c>
       <c r="F2" s="0">
-        <v>15.986319552246279</v>
+        <v>15.234835784775994</v>
       </c>
       <c r="G2" s="0">
-        <v>0.52504463437539151</v>
+        <v>0.49473328433173969</v>
       </c>
       <c r="H2" s="0">
-        <v>392</v>
+        <v>385.5</v>
       </c>
       <c r="I2" s="0">
-        <v>329</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
@@ -168,115 +165,115 @@
         <v>0.020000000000000004</v>
       </c>
       <c r="B3" s="0">
-        <v>33.998490411371414</v>
+        <v>32.932372017592201</v>
       </c>
       <c r="C3" s="0">
-        <v>17.098783289264428</v>
+        <v>16.078444421406854</v>
       </c>
       <c r="D3" s="0">
-        <v>0.50292772068331093</v>
+        <v>0.48822612634212564</v>
       </c>
       <c r="E3" s="0">
-        <v>30.965320937654489</v>
+        <v>30.117062545299198</v>
       </c>
       <c r="F3" s="0">
-        <v>15.791445377890428</v>
+        <v>15.296917341733348</v>
       </c>
       <c r="G3" s="0">
-        <v>0.5099719589435191</v>
+        <v>0.50791531606793294</v>
       </c>
       <c r="H3" s="0">
-        <v>361</v>
+        <v>322.5</v>
       </c>
       <c r="I3" s="0">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.030000000000000006</v>
       </c>
       <c r="B4" s="0">
-        <v>34.953292098841374</v>
+        <v>33.1796975239291</v>
       </c>
       <c r="C4" s="0">
-        <v>17.767381951044431</v>
+        <v>16.217333375594809</v>
       </c>
       <c r="D4" s="0">
-        <v>0.50831784029960891</v>
+        <v>0.48877279137035279</v>
       </c>
       <c r="E4" s="0">
-        <v>31.177113745966082</v>
+        <v>30.194228218778868</v>
       </c>
       <c r="F4" s="0">
-        <v>15.445880782691894</v>
+        <v>15.288582615456379</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49542369151122567</v>
+        <v>0.50634122868382725</v>
       </c>
       <c r="H4" s="0">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="I4" s="0">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.05000000000000001</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="B5" s="0">
-        <v>35.394112510104648</v>
+        <v>33.39462924544231</v>
       </c>
       <c r="C5" s="0">
-        <v>17.756840852952326</v>
+        <v>16.317367183436009</v>
       </c>
       <c r="D5" s="0">
-        <v>0.50168911137079464</v>
+        <v>0.48862249865112661</v>
       </c>
       <c r="E5" s="0">
-        <v>31.326300792602915</v>
+        <v>30.590676489596902</v>
       </c>
       <c r="F5" s="0">
-        <v>15.428697994712859</v>
+        <v>15.480958121910632</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49251579676959628</v>
+        <v>0.50606785787085506</v>
       </c>
       <c r="H5" s="0">
-        <v>318</v>
+        <v>281.5</v>
       </c>
       <c r="I5" s="0">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.060000000000000012</v>
+        <v>0.05000000000000001</v>
       </c>
       <c r="B6" s="0">
-        <v>35.310144536326654</v>
+        <v>33.588616560882791</v>
       </c>
       <c r="C6" s="0">
-        <v>17.965353722573337</v>
+        <v>16.542366296738358</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50878731759624474</v>
+        <v>0.49249918545331073</v>
       </c>
       <c r="E6" s="0">
-        <v>32.791752215879534</v>
+        <v>30.634043816811094</v>
       </c>
       <c r="F6" s="0">
-        <v>16.591165532682105</v>
+        <v>15.356483311938568</v>
       </c>
       <c r="G6" s="0">
-        <v>0.50595544341323029</v>
+        <v>0.50128815522263392</v>
       </c>
       <c r="H6" s="0">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="I6" s="0">
-        <v>217</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="7">
@@ -284,28 +281,28 @@
         <v>0.060000000000000012</v>
       </c>
       <c r="B7" s="0">
-        <v>33.075027751179192</v>
+        <v>34.038245924791944</v>
       </c>
       <c r="C7" s="0">
-        <v>15.757709334551468</v>
+        <v>16.776145065184295</v>
       </c>
       <c r="D7" s="0">
-        <v>0.47642316290995923</v>
+        <v>0.49286162107916665</v>
       </c>
       <c r="E7" s="0">
-        <v>29.547058183870611</v>
+        <v>30.907467922690074</v>
       </c>
       <c r="F7" s="0">
-        <v>14.229710871341881</v>
+        <v>15.473842353435121</v>
       </c>
       <c r="G7" s="0">
-        <v>0.48159484381797818</v>
+        <v>0.50065059978838711</v>
       </c>
       <c r="H7" s="0">
-        <v>264.93941487885422</v>
+        <v>264</v>
       </c>
       <c r="I7" s="0">
-        <v>234.48172984008158</v>
+        <v>231.5</v>
       </c>
     </row>
     <row r="8">
@@ -313,28 +310,28 @@
         <v>0.070000000000000007</v>
       </c>
       <c r="B8" s="0">
-        <v>33.103247222993616</v>
+        <v>34.506021199950069</v>
       </c>
       <c r="C8" s="0">
-        <v>15.668040964114224</v>
+        <v>16.966938390040298</v>
       </c>
       <c r="D8" s="0">
-        <v>0.47330827874889431</v>
+        <v>0.49170949880668507</v>
       </c>
       <c r="E8" s="0">
-        <v>29.622218816427491</v>
+        <v>30.940195223590329</v>
       </c>
       <c r="F8" s="0">
-        <v>14.20177521486325</v>
+        <v>15.498883332613644</v>
       </c>
       <c r="G8" s="0">
-        <v>0.47942982606648699</v>
+        <v>0.50093036648962486</v>
       </c>
       <c r="H8" s="0">
-        <v>253.9089800008224</v>
+        <v>258</v>
       </c>
       <c r="I8" s="0">
-        <v>224.05999176637027</v>
+        <v>225.5</v>
       </c>
     </row>
     <row r="9">
@@ -342,28 +339,28 @@
         <v>0.080000000000000002</v>
       </c>
       <c r="B9" s="0">
-        <v>33.20663763430386</v>
+        <v>34.542526943152097</v>
       </c>
       <c r="C9" s="0">
-        <v>15.807284476508356</v>
+        <v>16.836710504553999</v>
       </c>
       <c r="D9" s="0">
-        <v>0.47602785474970111</v>
+        <v>0.48741976903608675</v>
       </c>
       <c r="E9" s="0">
-        <v>29.73629283040912</v>
+        <v>30.858930562263019</v>
       </c>
       <c r="F9" s="0">
-        <v>14.3559598089563</v>
+        <v>15.463301739826747</v>
       </c>
       <c r="G9" s="0">
-        <v>0.48277570747741344</v>
+        <v>0.50109648837722898</v>
       </c>
       <c r="H9" s="0">
-        <v>247.53200442231542</v>
+        <v>253</v>
       </c>
       <c r="I9" s="0">
-        <v>215.89869199196136</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
@@ -371,28 +368,28 @@
         <v>0.090000000000000011</v>
       </c>
       <c r="B10" s="0">
-        <v>33.332796427749976</v>
+        <v>35.218313745201684</v>
       </c>
       <c r="C10" s="0">
-        <v>15.690204794310942</v>
+        <v>17.311994536218648</v>
       </c>
       <c r="D10" s="0">
-        <v>0.47071372569415293</v>
+        <v>0.49156227812233966</v>
       </c>
       <c r="E10" s="0">
-        <v>29.806605027105881</v>
+        <v>31.060537986029125</v>
       </c>
       <c r="F10" s="0">
-        <v>14.65412151055671</v>
+        <v>15.553497301966893</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49164007431340712</v>
+        <v>0.50074783987845861</v>
       </c>
       <c r="H10" s="0">
-        <v>239</v>
+        <v>249.5</v>
       </c>
       <c r="I10" s="0">
-        <v>209.62651492573076</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="11">
@@ -400,28 +397,28 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="B11" s="0">
-        <v>33.518925693789171</v>
+        <v>35.045649540805663</v>
       </c>
       <c r="C11" s="0">
-        <v>15.749316506318914</v>
+        <v>17.234527415253048</v>
       </c>
       <c r="D11" s="0">
-        <v>0.4698634034454498</v>
+        <v>0.49177366209708562</v>
       </c>
       <c r="E11" s="0">
-        <v>29.905018401784837</v>
+        <v>31.13447520467524</v>
       </c>
       <c r="F11" s="0">
-        <v>15.029180968978293</v>
+        <v>15.599402815725494</v>
       </c>
       <c r="G11" s="0">
-        <v>0.5025638428659619</v>
+        <v>0.5010331060079356</v>
       </c>
       <c r="H11" s="0">
-        <v>233.55118819170545</v>
+        <v>245.5</v>
       </c>
       <c r="I11" s="0">
-        <v>203.99441969176524</v>
+        <v>214.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/feed_pressure_sweep_results.xlsx
+++ b/Graphs/feed_pressure_sweep_results.xlsx
@@ -85,21 +85,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="20.9296875" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,289 +136,202 @@
         <v>0.01</v>
       </c>
       <c r="B2" s="0">
-        <v>32.592550571366232</v>
+        <v>33.624019079867359</v>
       </c>
       <c r="C2" s="0">
-        <v>15.990458615771146</v>
+        <v>16.240478234926094</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49061697643937568</v>
+        <v>0.48300229060511701</v>
       </c>
       <c r="E2" s="0">
-        <v>30.794038459236532</v>
+        <v>30.78008657176207</v>
       </c>
       <c r="F2" s="0">
-        <v>15.234835784775994</v>
+        <v>15.604924769908012</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49473328433173969</v>
+        <v>0.5069811851739271</v>
       </c>
       <c r="H2" s="0">
-        <v>385.5</v>
+        <v>466.5</v>
       </c>
       <c r="I2" s="0">
-        <v>353</v>
+        <v>447.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.020000000000000004</v>
+        <v>0.030000000000000006</v>
       </c>
       <c r="B3" s="0">
-        <v>32.932372017592201</v>
+        <v>34.561347838597037</v>
       </c>
       <c r="C3" s="0">
-        <v>16.078444421406854</v>
+        <v>16.241261050687829</v>
       </c>
       <c r="D3" s="0">
-        <v>0.48822612634212564</v>
+        <v>0.46992556906447075</v>
       </c>
       <c r="E3" s="0">
-        <v>30.117062545299198</v>
+        <v>30.760749902898517</v>
       </c>
       <c r="F3" s="0">
-        <v>15.296917341733348</v>
+        <v>15.575537233241789</v>
       </c>
       <c r="G3" s="0">
-        <v>0.50791531606793294</v>
+        <v>0.50634452288740006</v>
       </c>
       <c r="H3" s="0">
-        <v>322.5</v>
+        <v>356</v>
       </c>
       <c r="I3" s="0">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.030000000000000006</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="B4" s="0">
-        <v>33.1796975239291</v>
+        <v>34.902943652677102</v>
       </c>
       <c r="C4" s="0">
-        <v>16.217333375594809</v>
+        <v>16.086617324795494</v>
       </c>
       <c r="D4" s="0">
-        <v>0.48877279137035279</v>
+        <v>0.46089571942341401</v>
       </c>
       <c r="E4" s="0">
-        <v>30.194228218778868</v>
+        <v>30.945583760443384</v>
       </c>
       <c r="F4" s="0">
-        <v>15.288582615456379</v>
+        <v>15.53188159928167</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50634122868382725</v>
+        <v>0.50190947178496959</v>
       </c>
       <c r="H4" s="0">
-        <v>297</v>
+        <v>338.5</v>
       </c>
       <c r="I4" s="0">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.05000000000000001</v>
       </c>
       <c r="B5" s="0">
-        <v>33.39462924544231</v>
+        <v>35.186466631083917</v>
       </c>
       <c r="C5" s="0">
-        <v>16.317367183436009</v>
+        <v>16.072580072718988</v>
       </c>
       <c r="D5" s="0">
-        <v>0.48862249865112661</v>
+        <v>0.45678300811597783</v>
       </c>
       <c r="E5" s="0">
-        <v>30.590676489596902</v>
+        <v>30.888237538443072</v>
       </c>
       <c r="F5" s="0">
-        <v>15.480958121910632</v>
+        <v>15.355825512851604</v>
       </c>
       <c r="G5" s="0">
-        <v>0.50606785787085506</v>
+        <v>0.49714152494909936</v>
       </c>
       <c r="H5" s="0">
-        <v>281.5</v>
+        <v>327</v>
       </c>
       <c r="I5" s="0">
-        <v>247</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.05000000000000001</v>
+        <v>0.060000000000000012</v>
       </c>
       <c r="B6" s="0">
-        <v>33.588616560882791</v>
+        <v>34.915850752217843</v>
       </c>
       <c r="C6" s="0">
-        <v>16.542366296738358</v>
+        <v>15.757514148632769</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49249918545331073</v>
+        <v>0.45129973376438082</v>
       </c>
       <c r="E6" s="0">
-        <v>30.634043816811094</v>
+        <v>31.042470476101087</v>
       </c>
       <c r="F6" s="0">
-        <v>15.356483311938568</v>
+        <v>15.361312822036473</v>
       </c>
       <c r="G6" s="0">
-        <v>0.50128815522263392</v>
+        <v>0.49484827033540413</v>
       </c>
       <c r="H6" s="0">
-        <v>271</v>
+        <v>317.5</v>
       </c>
       <c r="I6" s="0">
-        <v>237.5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.060000000000000012</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="B7" s="0">
-        <v>34.038245924791944</v>
+        <v>34.996970872984761</v>
       </c>
       <c r="C7" s="0">
-        <v>16.776145065184295</v>
+        <v>15.757448817698954</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49286162107916665</v>
+        <v>0.45025179107322727</v>
       </c>
       <c r="E7" s="0">
-        <v>30.907467922690074</v>
+        <v>31.175656631575812</v>
       </c>
       <c r="F7" s="0">
-        <v>15.473842353435121</v>
+        <v>15.391525211629316</v>
       </c>
       <c r="G7" s="0">
-        <v>0.50065059978838711</v>
+        <v>0.49370332094433683</v>
       </c>
       <c r="H7" s="0">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="I7" s="0">
-        <v>231.5</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="B8" s="0">
-        <v>34.506021199950069</v>
+        <v>35.144037435979122</v>
       </c>
       <c r="C8" s="0">
-        <v>16.966938390040298</v>
+        <v>15.827117262288487</v>
       </c>
       <c r="D8" s="0">
-        <v>0.49170949880668507</v>
+        <v>0.45035000008522896</v>
       </c>
       <c r="E8" s="0">
-        <v>30.940195223590329</v>
+        <v>31.739256159589168</v>
       </c>
       <c r="F8" s="0">
-        <v>15.498883332613644</v>
+        <v>15.812340687981415</v>
       </c>
       <c r="G8" s="0">
-        <v>0.50093036648962486</v>
+        <v>0.4981950619281964</v>
       </c>
       <c r="H8" s="0">
-        <v>258</v>
+        <v>305.5</v>
       </c>
       <c r="I8" s="0">
-        <v>225.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="B9" s="0">
-        <v>34.542526943152097</v>
-      </c>
-      <c r="C9" s="0">
-        <v>16.836710504553999</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.48741976903608675</v>
-      </c>
-      <c r="E9" s="0">
-        <v>30.858930562263019</v>
-      </c>
-      <c r="F9" s="0">
-        <v>15.463301739826747</v>
-      </c>
-      <c r="G9" s="0">
-        <v>0.50109648837722898</v>
-      </c>
-      <c r="H9" s="0">
-        <v>253</v>
-      </c>
-      <c r="I9" s="0">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.090000000000000011</v>
-      </c>
-      <c r="B10" s="0">
-        <v>35.218313745201684</v>
-      </c>
-      <c r="C10" s="0">
-        <v>17.311994536218648</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.49156227812233966</v>
-      </c>
-      <c r="E10" s="0">
-        <v>31.060537986029125</v>
-      </c>
-      <c r="F10" s="0">
-        <v>15.553497301966893</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0.50074783987845861</v>
-      </c>
-      <c r="H10" s="0">
-        <v>249.5</v>
-      </c>
-      <c r="I10" s="0">
-        <v>217.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="B11" s="0">
-        <v>35.045649540805663</v>
-      </c>
-      <c r="C11" s="0">
-        <v>17.234527415253048</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.49177366209708562</v>
-      </c>
-      <c r="E11" s="0">
-        <v>31.13447520467524</v>
-      </c>
-      <c r="F11" s="0">
-        <v>15.599402815725494</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0.5010331060079356</v>
-      </c>
-      <c r="H11" s="0">
-        <v>245.5</v>
-      </c>
-      <c r="I11" s="0">
-        <v>214.5</v>
+        <v>272.5</v>
       </c>
     </row>
   </sheetData>
